--- a/Outputs/3. Prosumer percentage/Output Files/90/Output_6_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/90/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345716.035194856</v>
+        <v>1342563.064686563</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760739</v>
+        <v>612367.9462114751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7586741.543805782</v>
+        <v>7611866.615977258</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>24.68480934377219</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>127.6603223348121</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -825,13 +825,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>152.6093644905707</v>
       </c>
       <c r="T4" t="n">
-        <v>104.6805223578578</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -898,10 +898,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>218.8626256726074</v>
       </c>
       <c r="D5" t="n">
-        <v>70.34149945610388</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -910,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>16.51935533953271</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>100.2473823776612</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>37.57894091842041</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>109.5102798087751</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>68.22238607350806</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>293.3118661077256</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>169.6356194967388</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1590,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>42.09512187520932</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1770,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>148.8355423567366</v>
+        <v>152.4375371479441</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>40.50347681981849</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2140,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>117.6389794551519</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.24413860624966</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>40.23577078710646</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.91221236482946</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>83.06229325878651</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>209.9992140146153</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>187.5923369020717</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3568,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>96.444205106868</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.3194424311361</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>311.0876633699169</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3906,16 +3906,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>139.2763515105429</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>180.0196592840993</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4033,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>161.6737988100371</v>
+        <v>157.9275546771346</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1674.816201625927</v>
+        <v>161.1043461278184</v>
       </c>
       <c r="C2" t="n">
-        <v>1651.955875679631</v>
+        <v>136.1701952755233</v>
       </c>
       <c r="D2" t="n">
-        <v>1632.703658905035</v>
+        <v>116.9179785009276</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>94.98144268918922</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>73.89766491899353</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="O2" t="n">
-        <v>1508.432753835019</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>993.9695752563068</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>993.9695752563068</v>
       </c>
       <c r="X2" t="n">
-        <v>2095.961431922162</v>
+        <v>582.2495764240541</v>
       </c>
       <c r="Y2" t="n">
-        <v>2094.664565917457</v>
+        <v>580.9527104193485</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>796.7851917762486</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="M3" t="n">
-        <v>1696.494830002562</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="N3" t="n">
-        <v>1771.166545545054</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623.3523977951305</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>451.3798346740465</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>288.0630618008172</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>288.0630618008172</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008172</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="T4" t="n">
-        <v>2119.173351090803</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="U4" t="n">
-        <v>1838.988902591107</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="V4" t="n">
-        <v>1557.277435199136</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="W4" t="n">
-        <v>1282.425031371649</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="X4" t="n">
-        <v>1039.861134817454</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
-        <v>813.5183665071961</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1691.719133247433</v>
+        <v>1575.160856418926</v>
       </c>
       <c r="C5" t="n">
-        <v>1668.858807301137</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X5" t="n">
-        <v>1708.823959503264</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1707.527093498559</v>
+        <v>1590.968816670051</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>669.8354755761777</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>617.6368043798143</v>
+        <v>737.483955463365</v>
       </c>
       <c r="C7" t="n">
-        <v>617.6368043798143</v>
+        <v>565.5113923422809</v>
       </c>
       <c r="D7" t="n">
-        <v>454.3200315065851</v>
+        <v>565.5113923422809</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>399.3031864951345</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>227.4414122696949</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>61.18444256392704</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>61.18444256392704</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2076.612656949891</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1833.273309175791</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1833.273309175791</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1551.56184178382</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1276.709437956333</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1034.145541402138</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="Y7" t="n">
-        <v>807.80277309188</v>
+        <v>927.6499241754307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.086427374292</v>
+        <v>275.4430552300371</v>
       </c>
       <c r="C8" t="n">
-        <v>1758.12790119407</v>
+        <v>252.5827292837413</v>
       </c>
       <c r="D8" t="n">
-        <v>1334.83528037907</v>
+        <v>233.3305125091457</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>211.3939766974073</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>190.3101989272116</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>190.0115405570643</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4807,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630124</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.894387625418</v>
+        <v>291.2510154811631</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>1417.526784297715</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>1417.526784297715</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>717.8575411161469</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>545.8849779950629</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>382.5682051218336</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4992,22 +4992,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1938.826090584332</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1658.641642084636</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1376.930174692665</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W10" t="n">
-        <v>1376.930174692665</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.366278138471</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.0235098282126</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>134.9738161355189</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958856</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1178.188711671385</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1178.188711671385</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.474813090443</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>3158.725871577144</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>4003.870521727956</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4712.149800885883</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949504</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822645</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>667.2004359104453</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>549.6945324279501</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432351</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161723</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>247.5068098990765</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>153.4530381166805</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>371.7744341585812</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N12" t="n">
-        <v>371.7744341585812</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1261.255712170053</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1908.7645754595</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1827.440328020754</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1685.560392318433</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1500.792196238069</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1295.819057377335</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1099.297680210553</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>935.8203339772157</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>796.1274453305081</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>371.1946237414806</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C13" t="n">
-        <v>199.8455131387141</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D13" t="n">
-        <v>199.8455131387141</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E13" t="n">
-        <v>199.8455131387141</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F13" t="n">
-        <v>199.8455131387141</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G13" t="n">
-        <v>199.8455131387141</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031481</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>384.0958743089853</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>738.785195603406</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1129.970990573657</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1507.462501449693</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1862.890630129456</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051356</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292118</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2280.489972292118</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2110.354924811253</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1867.015577037153</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U13" t="n">
-        <v>1586.831128537457</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V13" t="n">
-        <v>1305.119661145486</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W13" t="n">
-        <v>1030.267257317999</v>
+        <v>1678.299499800816</v>
       </c>
       <c r="X13" t="n">
-        <v>787.7033607638042</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="Y13" t="n">
-        <v>561.3605924535462</v>
+        <v>1209.392834936363</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544891</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>896.2443403489199</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1900.530441767978</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.781500254679</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405491</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949504</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822645</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>4529.262127278774</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4171.772712405023</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>667.2004359104453</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>549.6945324279501</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432351</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161723</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>247.5068098990765</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>153.4530381166805</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.063482855035</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1908.7645754595</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1827.440328020754</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1685.560392318433</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1500.792196238069</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1295.819057377335</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1099.297680210553</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>935.8203339772157</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>796.1274453305081</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>832.210246130883</v>
+        <v>1067.83080369535</v>
       </c>
       <c r="C16" t="n">
-        <v>660.237683009799</v>
+        <v>895.8582405742663</v>
       </c>
       <c r="D16" t="n">
-        <v>660.237683009799</v>
+        <v>732.541467701037</v>
       </c>
       <c r="E16" t="n">
-        <v>660.237683009799</v>
+        <v>566.3332618538906</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031481</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>384.0958743089853</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>738.785195603406</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1129.970990573657</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1507.462501449693</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1862.890630129456</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051356</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292118</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1539.792515224631</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="W16" t="n">
-        <v>1264.940111397143</v>
+        <v>1484.339540717674</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.376214842949</v>
+        <v>1484.339540717674</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.376214842949</v>
+        <v>1257.996772407416</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5591,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M18" t="n">
-        <v>105.4776804749704</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
         <v>1194.79262694784</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.365091998858</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>675.392528877774</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>512.0757560045447</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1781.290129402863</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1506.437725575376</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.873829021182</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.531060710924</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5761,28 +5761,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2856.963518260712</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1720.81982492729</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.441863840363</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1430.441863840363</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.966407265231</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.966407265231</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>890.8366926500012</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C28" t="n">
-        <v>890.8366926500012</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>219.7520236338613</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6423,13 +6423,13 @@
         <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1307.345429672325</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1081.002661362067</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6481,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6548,22 +6548,22 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>692.7876399741681</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M30" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3510.752655182783</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3510.752655182783</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3510.752655182783</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3344.544449335636</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3510.752655182783</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
         <v>1446.844867123559</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>796.0638950398506</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C34" t="n">
-        <v>624.0913319187666</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D34" t="n">
-        <v>624.0913319187666</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E34" t="n">
-        <v>540.1900255967601</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W34" t="n">
-        <v>1228.793760306111</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X34" t="n">
-        <v>986.2298637519162</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y34" t="n">
-        <v>986.2298637519162</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7016,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1019.275630082919</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>847.303066961835</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2046.189918514139</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1766.005470014443</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1484.294002622472</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.441598794985</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.441598794985</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.441598794985</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7216,10 +7216,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491885</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281045</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7344,40 +7344,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2039.376393044861</v>
       </c>
       <c r="U40" t="n">
-        <v>2112.580693338092</v>
+        <v>1759.191944545165</v>
       </c>
       <c r="V40" t="n">
-        <v>2112.580693338092</v>
+        <v>1477.480477153194</v>
       </c>
       <c r="W40" t="n">
-        <v>1837.728289510605</v>
+        <v>1202.628073325707</v>
       </c>
       <c r="X40" t="n">
-        <v>1595.16439295641</v>
+        <v>960.0641767715121</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>733.7214084612541</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721394</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734694</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>462.6804036958856</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1178.188711671385</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2107.813759290661</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4886.290909067602</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4886.290909067602</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067602</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949504</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822645</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589939</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890286</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058034</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012924</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>667.2004359104453</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>549.6945324279501</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432351</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161723</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>247.5068098990765</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>153.4530381166805</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M42" t="n">
-        <v>1156.063482855035</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.7645754595</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1908.7645754595</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1827.440328020754</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1685.560392318433</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1500.792196238069</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1295.819057377335</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1099.297680210553</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>935.8203339772157</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>796.1274453305081</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.6798067024497</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>675.7072435813657</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>512.3904707081364</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>371.7072873641537</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>199.8455131387141</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>199.8455131387141</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387141</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031481</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>384.0958743089853</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>738.785195603406</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M43" t="n">
-        <v>1129.970990573657</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N43" t="n">
-        <v>1507.462501449693</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O43" t="n">
-        <v>1862.890630129456</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051356</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292118</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979291</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498426</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T43" t="n">
-        <v>2063.316311498426</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="U43" t="n">
-        <v>2063.316311498426</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="V43" t="n">
-        <v>1781.604844106455</v>
+        <v>1783.830612633298</v>
       </c>
       <c r="W43" t="n">
-        <v>1506.752440278968</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X43" t="n">
-        <v>1264.188543724773</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1037.845775414515</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958856</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1178.188711671385</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1741.388990499732</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2745.67509191879</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3721.926150405491</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563419</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067602</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949504</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822645</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>667.2004359104453</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>549.6945324279501</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432351</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161723</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>247.5068098990765</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>153.4530381166805</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>371.7744341585812</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>371.7744341585812</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>371.7744341585812</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.760972134626</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>1908.7645754595</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1908.7645754595</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1827.440328020754</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1685.560392318433</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1500.792196238069</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1295.819057377335</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1099.297680210553</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>935.8203339772157</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>796.1274453305081</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1183.258067403227</v>
+        <v>855.9100933510683</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.285504282143</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="D46" t="n">
-        <v>847.9687314089136</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E46" t="n">
-        <v>681.7605255617672</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>100.0769448789901</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031481</v>
+        <v>159.7940416299897</v>
       </c>
       <c r="K46" t="n">
-        <v>384.0958743089853</v>
+        <v>386.3216428358269</v>
       </c>
       <c r="L46" t="n">
-        <v>738.785195603406</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M46" t="n">
-        <v>1129.970990573657</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N46" t="n">
-        <v>1507.462501449693</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O46" t="n">
-        <v>1862.890630129456</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051356</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292118</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R46" t="n">
-        <v>2280.489972292118</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S46" t="n">
-        <v>2117.183104807232</v>
+        <v>2123.192958316804</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.183104807232</v>
+        <v>1879.853610542704</v>
       </c>
       <c r="U46" t="n">
-        <v>2117.183104807232</v>
+        <v>1599.669162043008</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.183104807232</v>
+        <v>1599.669162043008</v>
       </c>
       <c r="W46" t="n">
-        <v>1842.330700979745</v>
+        <v>1324.816758215521</v>
       </c>
       <c r="X46" t="n">
-        <v>1599.766804425551</v>
+        <v>1082.252861661326</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.424036115293</v>
+        <v>855.9100933510683</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>38.0691539621999</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>522.0887335865908</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7996,13 +7996,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>300.5986134498011</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>506.1759249873012</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>48.27353409470226</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898808</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8078,7 +8078,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.915358154857</v>
+        <v>215.3931969178313</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8300,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>379.7269667620468</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>176.6411400339851</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.0247838790613</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,25 +8768,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>675.8201980628559</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>119.7858681845732</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9005,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>522.0689695543915</v>
       </c>
       <c r="M18" t="n">
-        <v>26.3038179559056</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>791.8999401147979</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>306.3476911866398</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,7 +9491,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>117.2451261364169</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9959,7 +9959,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9974,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>80.34697437090524</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,10 +10196,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M30" t="n">
-        <v>701.9229593655479</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10208,13 +10208,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>676.5644435722569</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,13 +10679,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>475.2939470053066</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
-        <v>843.3909491248942</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,19 +11138,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11159,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11302,7 +11302,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>607.201212966307</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11314,7 +11314,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6172179931343464</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>230.0087579140028</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>21.30761412644856</v>
+        <v>17.7056193352411</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>238.3908758982329</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>122.499278133501</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.8352020209057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.4478343573905</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>48.31958288295772</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>160.1671282623259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,16 +25083,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>81.48383052988846</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>30.13904357403763</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>53.31361739428735</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.239400037629</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.759898196019321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>25.26977227813211</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>92.08422050511277</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>6.759898196019378</v>
+        <v>10.50614232892192</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>648739.7141317696</v>
+        <v>644281.6429132726</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651853.0438233361</v>
+        <v>661977.8436037879</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651853.043823336</v>
+        <v>661977.8436037879</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661977.8436037879</v>
+        <v>661977.8436037878</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661977.8436037879</v>
+        <v>661977.8436037877</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661977.8436037877</v>
+        <v>661977.8436037878</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661977.8436037878</v>
+        <v>661977.8436037879</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651853.0438233361</v>
+        <v>661977.8436037879</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651853.0438233361</v>
+        <v>661977.8436037879</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.934308093</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="C2" t="n">
         <v>422270.9343080932</v>
@@ -26322,40 +26322,40 @@
         <v>422270.9343080932</v>
       </c>
       <c r="E2" t="n">
-        <v>401240.9763519655</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="F2" t="n">
-        <v>401240.9763519656</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.0422746489</v>
       </c>
       <c r="H2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.0422746489</v>
       </c>
       <c r="I2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="J2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="K2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="L2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="M2" t="n">
+        <v>407472.0422746493</v>
+      </c>
+      <c r="N2" t="n">
+        <v>407472.0422746492</v>
+      </c>
+      <c r="O2" t="n">
         <v>407472.0422746491</v>
       </c>
-      <c r="K2" t="n">
-        <v>407472.0422746491</v>
-      </c>
-      <c r="L2" t="n">
-        <v>407472.0422746493</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>407472.042274649</v>
-      </c>
-      <c r="N2" t="n">
-        <v>407472.0422746491</v>
-      </c>
-      <c r="O2" t="n">
-        <v>401240.9763519656</v>
-      </c>
-      <c r="P2" t="n">
-        <v>401240.9763519655</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165609</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481478</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056396</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192234.7527383294</v>
+        <v>204262.5493298005</v>
       </c>
       <c r="C4" t="n">
-        <v>192234.7527383294</v>
+        <v>192223.7542571983</v>
       </c>
       <c r="D4" t="n">
-        <v>192234.7527383294</v>
+        <v>192223.7542571984</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.41525944532</v>
+        <v>88323.8662668452</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.4152594453</v>
+        <v>88323.8662668452</v>
       </c>
       <c r="G4" t="n">
-        <v>88342.12692469012</v>
+        <v>88323.8662668452</v>
       </c>
       <c r="H4" t="n">
-        <v>88342.12692469011</v>
+        <v>88323.8662668452</v>
       </c>
       <c r="I4" t="n">
-        <v>88342.12692469011</v>
+        <v>88323.86626684522</v>
       </c>
       <c r="J4" t="n">
-        <v>88342.12692469011</v>
+        <v>88323.8662668452</v>
       </c>
       <c r="K4" t="n">
-        <v>88342.12692469009</v>
+        <v>88323.8662668452</v>
       </c>
       <c r="L4" t="n">
-        <v>88342.12692469011</v>
+        <v>88323.86626684522</v>
       </c>
       <c r="M4" t="n">
-        <v>88342.12692469011</v>
+        <v>88323.8662668452</v>
       </c>
       <c r="N4" t="n">
-        <v>88342.12692469011</v>
+        <v>88323.8662668452</v>
       </c>
       <c r="O4" t="n">
-        <v>86988.41525944529</v>
+        <v>88323.8662668452</v>
       </c>
       <c r="P4" t="n">
-        <v>86988.4152594453</v>
+        <v>88323.8662668452</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803246</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803246</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26508,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803246</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803246</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23814.80288240174</v>
+        <v>-7157.533913459745</v>
       </c>
       <c r="C6" t="n">
-        <v>162589.9305323356</v>
+        <v>139194.0953398545</v>
       </c>
       <c r="D6" t="n">
-        <v>162589.9305323356</v>
+        <v>162600.9290134667</v>
       </c>
       <c r="E6" t="n">
-        <v>30761.7953679268</v>
+        <v>25148.45064089077</v>
       </c>
       <c r="F6" t="n">
-        <v>238194.0829844878</v>
+        <v>240887.8071975313</v>
       </c>
       <c r="G6" t="n">
-        <v>233754.2310780479</v>
+        <v>240887.8071975311</v>
       </c>
       <c r="H6" t="n">
-        <v>241379.8531615293</v>
+        <v>240887.8071975311</v>
       </c>
       <c r="I6" t="n">
-        <v>241379.8531615292</v>
+        <v>240887.8071975312</v>
       </c>
       <c r="J6" t="n">
-        <v>95846.1832267128</v>
+        <v>114310.5386172424</v>
       </c>
       <c r="K6" t="n">
-        <v>241379.8531615293</v>
+        <v>222241.2068405114</v>
       </c>
       <c r="L6" t="n">
-        <v>241379.8531615295</v>
+        <v>240887.8071975312</v>
       </c>
       <c r="M6" t="n">
-        <v>68249.36195588969</v>
+        <v>60823.93574236379</v>
       </c>
       <c r="N6" t="n">
-        <v>241379.8531615293</v>
+        <v>240887.8071975314</v>
       </c>
       <c r="O6" t="n">
-        <v>238194.0829844879</v>
+        <v>240887.8071975313</v>
       </c>
       <c r="P6" t="n">
-        <v>238194.0829844878</v>
+        <v>240887.8071975312</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987376</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987376</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987376</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987376</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.733997871782</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.8221065854807</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.733997871782</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.733997871782</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.8221065854807</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>397.9469133430607</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>279.9424765091181</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>15.82433251548576</v>
       </c>
       <c r="T4" t="n">
-        <v>136.2254319385012</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>203.7690970142255</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>348.7181951507458</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>82.25152723759408</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>68.18631462839531</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>385.0527817684124</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>185.3794149319305</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>172.6835682228509</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>60.88629501226356</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.304553167390556</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>263.0232516395698</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>25.7584473804727</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>75.42597529544641</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968705</v>
+        <v>193.0123962598448</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>155.2981118204434</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>440.0596680121639</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.9001092744633</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>654.0493568580272</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>81.47382575195027</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>499.553882840162</v>
       </c>
       <c r="M18" t="n">
-        <v>3.207037443577619</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>754.4686772153661</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>283.9484573533065</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
@@ -36679,7 +36679,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M30" t="n">
-        <v>678.8261788532199</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>654.0493568580273</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404445</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
-        <v>805.99998976887</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115399</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -38022,7 +38022,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>568.8891705336841</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38034,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127393</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
